--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,153 +58,174 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>dear</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
   <si>
     <t>available</t>
   </si>
   <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>2020</t>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>hands</t>
   </si>
   <si>
     <t>local</t>
   </si>
   <si>
-    <t>retail</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>health</t>
   </si>
   <si>
@@ -214,73 +235,82 @@
     <t>shopping</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>ia</t>
   </si>
   <si>
-    <t>delivery</t>
+    <t>social</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>via</t>
   </si>
   <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>social</t>
+    <t>grocery</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>toilet</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
     <t>corona</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>prices</t>
+  </si>
+  <si>
+    <t>people</t>
   </si>
   <si>
     <t>food</t>
@@ -641,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,7 +682,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,22 +764,22 @@
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N3">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -760,13 +790,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4726027397260274</v>
+        <v>0.4589041095890411</v>
       </c>
       <c r="C4">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D4">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,28 +808,28 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9482758620689655</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4">
         <v>56</v>
       </c>
       <c r="N4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -834,22 +864,22 @@
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9111111111111111</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5">
         <v>42</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -860,13 +890,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -878,31 +908,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8717948717948718</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="N6">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +940,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1104651162790698</v>
+        <v>0.1027131782945736</v>
       </c>
       <c r="C7">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -928,28 +958,28 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8623853211009175</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M7">
         <v>97</v>
       </c>
       <c r="N7">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>15</v>
@@ -960,13 +990,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -978,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -986,25 +1016,25 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8188976377952756</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="L9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M9">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1012,25 +1042,25 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7875</v>
+        <v>0.8515625</v>
       </c>
       <c r="L10">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="M10">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="N10">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1068,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L11">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1056,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,13 +1094,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1082,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1090,13 +1120,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1108,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1116,25 +1146,25 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7658227848101266</v>
+        <v>0.75625</v>
       </c>
       <c r="L14">
         <v>121</v>
       </c>
       <c r="M14">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N14">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1142,25 +1172,25 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7192982456140351</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N15">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1168,25 +1198,25 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.693069306930693</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L16">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="N16">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1194,25 +1224,25 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6923076923076923</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="N17">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1220,25 +1250,25 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6609442060085837</v>
+        <v>0.6903765690376569</v>
       </c>
       <c r="L18">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="M18">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="N18">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1246,25 +1276,25 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6470588235294118</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N19">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1272,25 +1302,25 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6382978723404256</v>
+        <v>0.6724137931034483</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N20">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1298,25 +1328,25 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="N21">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1324,13 +1354,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6197183098591549</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L22">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M22">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1342,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1350,13 +1380,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5957446808510638</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1368,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1376,13 +1406,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5714285714285714</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1394,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1402,13 +1432,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5490196078431373</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1420,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1428,25 +1458,25 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5349544072948328</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L26">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1454,25 +1484,25 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.53125</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1480,25 +1510,25 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.52</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L28">
         <v>13</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N28">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1506,13 +1536,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.5185185185185185</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1524,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1532,25 +1562,25 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4659090909090909</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N30">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1558,25 +1588,25 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.4558823529411765</v>
+        <v>0.48</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1584,25 +1614,25 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.4261168384879725</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="L32">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>167</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1610,25 +1640,25 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.4214659685863874</v>
+        <v>0.464406779661017</v>
       </c>
       <c r="L33">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M33">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>221</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1636,13 +1666,13 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.42</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1654,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1662,25 +1692,25 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.40625</v>
+        <v>0.422976501305483</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="N35">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>19</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1688,13 +1718,13 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>0.4</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1706,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1714,13 +1744,13 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>0.3050847457627119</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1732,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1740,13 +1770,13 @@
         <v>49</v>
       </c>
       <c r="K38">
-        <v>0.2371134020618557</v>
+        <v>0.325</v>
       </c>
       <c r="L38">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1758,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1766,13 +1796,13 @@
         <v>50</v>
       </c>
       <c r="K39">
-        <v>0.234375</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1784,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1792,13 +1822,13 @@
         <v>51</v>
       </c>
       <c r="K40">
-        <v>0.2325581395348837</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="L40">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1810,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>165</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1818,25 +1848,25 @@
         <v>52</v>
       </c>
       <c r="K41">
-        <v>0.2307692307692308</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M41">
+        <v>14</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>33</v>
-      </c>
-      <c r="N41">
-        <v>0.91</v>
-      </c>
-      <c r="O41">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>100</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1844,25 +1874,25 @@
         <v>53</v>
       </c>
       <c r="K42">
-        <v>0.2289156626506024</v>
+        <v>0.296875</v>
       </c>
       <c r="L42">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="N42">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>320</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1870,7 +1900,7 @@
         <v>54</v>
       </c>
       <c r="K43">
-        <v>0.2166666666666667</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="L43">
         <v>13</v>
@@ -1888,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1896,25 +1926,25 @@
         <v>55</v>
       </c>
       <c r="K44">
-        <v>0.2112676056338028</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L44">
         <v>15</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N44">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1922,25 +1952,25 @@
         <v>56</v>
       </c>
       <c r="K45">
-        <v>0.2083333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="L45">
         <v>15</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N45">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1948,13 +1978,13 @@
         <v>57</v>
       </c>
       <c r="K46">
-        <v>0.1794871794871795</v>
+        <v>0.2465753424657534</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1966,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1974,25 +2004,25 @@
         <v>58</v>
       </c>
       <c r="K47">
-        <v>0.1772151898734177</v>
+        <v>0.2416267942583732</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="M47">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="N47">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>130</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2000,13 +2030,13 @@
         <v>59</v>
       </c>
       <c r="K48">
-        <v>0.1717791411042945</v>
+        <v>0.2406015037593985</v>
       </c>
       <c r="L48">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M48">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2018,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2026,25 +2056,25 @@
         <v>60</v>
       </c>
       <c r="K49">
-        <v>0.1592356687898089</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N49">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>132</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2052,13 +2082,13 @@
         <v>61</v>
       </c>
       <c r="K50">
-        <v>0.1538461538461539</v>
+        <v>0.2372093023255814</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2070,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>121</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2078,13 +2108,13 @@
         <v>62</v>
       </c>
       <c r="K51">
-        <v>0.1428571428571428</v>
+        <v>0.2075471698113208</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M51">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2096,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>84</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2104,25 +2134,25 @@
         <v>63</v>
       </c>
       <c r="K52">
-        <v>0.1384615384615385</v>
+        <v>0.2012578616352201</v>
       </c>
       <c r="L52">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M52">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N52">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2130,13 +2160,13 @@
         <v>64</v>
       </c>
       <c r="K53">
-        <v>0.1327433628318584</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2148,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2156,25 +2186,25 @@
         <v>65</v>
       </c>
       <c r="K54">
-        <v>0.1307506053268765</v>
+        <v>0.1605839416058394</v>
       </c>
       <c r="L54">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="N54">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>359</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2182,25 +2212,25 @@
         <v>66</v>
       </c>
       <c r="K55">
-        <v>0.1282051282051282</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M55">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N55">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2208,13 +2238,13 @@
         <v>67</v>
       </c>
       <c r="K56">
-        <v>0.1240875912408759</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2226,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>120</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2234,25 +2264,25 @@
         <v>68</v>
       </c>
       <c r="K57">
-        <v>0.1203007518796992</v>
+        <v>0.1533742331288344</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N57">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2260,25 +2290,25 @@
         <v>69</v>
       </c>
       <c r="K58">
-        <v>0.1101694915254237</v>
+        <v>0.1468531468531468</v>
       </c>
       <c r="L58">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M58">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N58">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>210</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2286,13 +2316,13 @@
         <v>70</v>
       </c>
       <c r="K59">
-        <v>0.1085271317829457</v>
+        <v>0.1450381679389313</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2304,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2312,25 +2342,25 @@
         <v>71</v>
       </c>
       <c r="K60">
-        <v>0.1032547699214366</v>
+        <v>0.1327433628318584</v>
       </c>
       <c r="L60">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="N60">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>799</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2338,25 +2368,25 @@
         <v>72</v>
       </c>
       <c r="K61">
-        <v>0.1027397260273973</v>
+        <v>0.1298076923076923</v>
       </c>
       <c r="L61">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="M61">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="N61">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>131</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2364,25 +2394,25 @@
         <v>73</v>
       </c>
       <c r="K62">
-        <v>0.09882903981264637</v>
+        <v>0.1252796420581656</v>
       </c>
       <c r="L62">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="M62">
-        <v>219</v>
+        <v>112</v>
       </c>
       <c r="N62">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>1924</v>
+        <v>782</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2390,25 +2420,25 @@
         <v>74</v>
       </c>
       <c r="K63">
-        <v>0.09859154929577464</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L63">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M63">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N63">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>192</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2416,25 +2446,25 @@
         <v>75</v>
       </c>
       <c r="K64">
-        <v>0.09677419354838709</v>
+        <v>0.1160714285714286</v>
       </c>
       <c r="L64">
-        <v>300</v>
+        <v>13</v>
       </c>
       <c r="M64">
-        <v>307</v>
+        <v>13</v>
       </c>
       <c r="N64">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>2800</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2442,25 +2472,25 @@
         <v>76</v>
       </c>
       <c r="K65">
-        <v>0.09509202453987731</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="L65">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M65">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N65">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>295</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2468,13 +2498,13 @@
         <v>77</v>
       </c>
       <c r="K66">
-        <v>0.09090909090909091</v>
+        <v>0.1130434782608696</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2486,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>150</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2494,25 +2524,25 @@
         <v>78</v>
       </c>
       <c r="K67">
-        <v>0.08357348703170028</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L67">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M67">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N67">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>318</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2520,13 +2550,13 @@
         <v>79</v>
       </c>
       <c r="K68">
-        <v>0.08260869565217391</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="L68">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M68">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2538,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2546,25 +2576,25 @@
         <v>80</v>
       </c>
       <c r="K69">
-        <v>0.08229813664596274</v>
+        <v>0.1060171919770774</v>
       </c>
       <c r="L69">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="M69">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="N69">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>591</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2572,13 +2602,13 @@
         <v>81</v>
       </c>
       <c r="K70">
-        <v>0.08108108108108109</v>
+        <v>0.1039755351681957</v>
       </c>
       <c r="L70">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M70">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2590,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>170</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2598,25 +2628,25 @@
         <v>82</v>
       </c>
       <c r="K71">
-        <v>0.07915273132664437</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="L71">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="M71">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N71">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>826</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2624,25 +2654,25 @@
         <v>83</v>
       </c>
       <c r="K72">
-        <v>0.07433628318584071</v>
+        <v>0.09939337377508166</v>
       </c>
       <c r="L72">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="M72">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="N72">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>523</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2650,25 +2680,25 @@
         <v>84</v>
       </c>
       <c r="K73">
-        <v>0.06597222222222222</v>
+        <v>0.09816543289346637</v>
       </c>
       <c r="L73">
-        <v>57</v>
+        <v>305</v>
       </c>
       <c r="M73">
-        <v>60</v>
+        <v>305</v>
       </c>
       <c r="N73">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>807</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2676,13 +2706,13 @@
         <v>85</v>
       </c>
       <c r="K74">
-        <v>0.06367041198501873</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L74">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M74">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2694,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>250</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2702,13 +2732,13 @@
         <v>86</v>
       </c>
       <c r="K75">
-        <v>0.05761316872427984</v>
+        <v>0.0972972972972973</v>
       </c>
       <c r="L75">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M75">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2720,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>458</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2728,25 +2758,25 @@
         <v>87</v>
       </c>
       <c r="K76">
-        <v>0.05070422535211268</v>
+        <v>0.09701492537313433</v>
       </c>
       <c r="L76">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M76">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="N76">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>3033</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2754,25 +2784,25 @@
         <v>88</v>
       </c>
       <c r="K77">
-        <v>0.04317789291882556</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="L77">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="M77">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="N77">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>1108</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2780,25 +2810,285 @@
         <v>89</v>
       </c>
       <c r="K78">
-        <v>0.01975051975051975</v>
+        <v>0.09465020576131687</v>
       </c>
       <c r="L78">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M78">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N78">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>943</v>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K79">
+        <v>0.09282700421940929</v>
+      </c>
+      <c r="L79">
+        <v>22</v>
+      </c>
+      <c r="M79">
+        <v>22</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K80">
+        <v>0.08990011098779134</v>
+      </c>
+      <c r="L80">
+        <v>81</v>
+      </c>
+      <c r="M80">
+        <v>81</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K81">
+        <v>0.08153846153846153</v>
+      </c>
+      <c r="L81">
+        <v>53</v>
+      </c>
+      <c r="M81">
+        <v>53</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K82">
+        <v>0.0726643598615917</v>
+      </c>
+      <c r="L82">
+        <v>63</v>
+      </c>
+      <c r="M82">
+        <v>63</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K83">
+        <v>0.07231040564373897</v>
+      </c>
+      <c r="L83">
+        <v>41</v>
+      </c>
+      <c r="M83">
+        <v>41</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K84">
+        <v>0.05217119650109341</v>
+      </c>
+      <c r="L84">
+        <v>167</v>
+      </c>
+      <c r="M84">
+        <v>167</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K85">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="L85">
+        <v>16</v>
+      </c>
+      <c r="M85">
+        <v>16</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K86">
+        <v>0.05167958656330749</v>
+      </c>
+      <c r="L86">
+        <v>60</v>
+      </c>
+      <c r="M86">
+        <v>60</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K87">
+        <v>0.02935779816513762</v>
+      </c>
+      <c r="L87">
+        <v>16</v>
+      </c>
+      <c r="M87">
+        <v>16</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K88">
+        <v>0.02789256198347108</v>
+      </c>
+      <c r="L88">
+        <v>27</v>
+      </c>
+      <c r="M88">
+        <v>27</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>941</v>
       </c>
     </row>
   </sheetData>
